--- a/Reportes_simulacion_LSTM.xlsx
+++ b/Reportes_simulacion_LSTM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X986"/>
+  <dimension ref="A1:X988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79355,6 +79355,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Juego_4</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>2024-03-31 10:58:10</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>0</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+      <c r="E987" t="n">
+        <v>0</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0</v>
+      </c>
+      <c r="G987" t="n">
+        <v>0</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="n">
+        <v>0</v>
+      </c>
+      <c r="J987" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M987" t="n">
+        <v>100</v>
+      </c>
+      <c r="N987" t="n">
+        <v>500</v>
+      </c>
+      <c r="O987" t="n">
+        <v>10</v>
+      </c>
+      <c r="P987" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>1</v>
+      </c>
+      <c r="R987" t="n">
+        <v>200</v>
+      </c>
+      <c r="S987" t="n">
+        <v>1</v>
+      </c>
+      <c r="T987" t="n">
+        <v>1</v>
+      </c>
+      <c r="U987" t="n">
+        <v>200</v>
+      </c>
+      <c r="V987" t="n">
+        <v>0</v>
+      </c>
+      <c r="W987" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="X987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Juego_5</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>2024-03-31 10:58:42</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>0</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="n">
+        <v>0</v>
+      </c>
+      <c r="J988" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M988" t="n">
+        <v>100</v>
+      </c>
+      <c r="N988" t="n">
+        <v>500</v>
+      </c>
+      <c r="O988" t="n">
+        <v>10</v>
+      </c>
+      <c r="P988" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>1</v>
+      </c>
+      <c r="R988" t="n">
+        <v>200</v>
+      </c>
+      <c r="S988" t="n">
+        <v>1</v>
+      </c>
+      <c r="T988" t="n">
+        <v>1</v>
+      </c>
+      <c r="U988" t="n">
+        <v>200</v>
+      </c>
+      <c r="V988" t="n">
+        <v>0</v>
+      </c>
+      <c r="W988" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="X988" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
